--- a/src/main/resources/static/excel/疫情导入模板.xlsx
+++ b/src/main/resources/static/excel/疫情导入模板.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
-  <si>
-    <t>事发单位名称</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>报告单位</t>
   </si>
@@ -75,10 +72,6 @@
   </si>
   <si>
     <t>医疗机构</t>
-  </si>
-  <si>
-    <t>1305班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
@@ -142,29 +135,9 @@
     <t>昆山市淀山湖镇社区卫生服务中心</t>
   </si>
   <si>
-    <t>1605班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
   </si>
   <si>
-    <t>昆山第一中学小学部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆山第一中学初中部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆山第一中学高中部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆山第一中学大学部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>家长</t>
   </si>
   <si>
@@ -183,11 +156,43 @@
     <t>昆山市青阳社区卫生服务中心</t>
   </si>
   <si>
-    <t>1705班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1805班</t>
+    <t>学年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事发学校名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆山第三中学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,317 +658,370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="22.875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="36.625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="25.625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="10.625" style="6" customWidth="1"/>
     <col min="5" max="5" width="11.25" style="6" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="8.75" style="6" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="6" customWidth="1"/>
-    <col min="12" max="12" width="6.75" style="6" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="14" style="6" customWidth="1"/>
-    <col min="15" max="15" width="7.75" style="6" customWidth="1"/>
-    <col min="16" max="16" width="7.125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="7" style="6" customWidth="1"/>
-    <col min="18" max="18" width="36" style="6" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="6"/>
+    <col min="6" max="6" width="11.875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="22.875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="36.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="7.375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="8.625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="8.75" style="6" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="6" customWidth="1"/>
+    <col min="15" max="15" width="6.75" style="6" customWidth="1"/>
+    <col min="16" max="16" width="15.875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14" style="6" customWidth="1"/>
+    <col min="18" max="18" width="7.75" style="6" customWidth="1"/>
+    <col min="19" max="19" width="7.125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="7" style="6" customWidth="1"/>
+    <col min="21" max="21" width="36" style="6" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" ht="45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" s="5" customFormat="1" ht="45">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="5">
+        <v>4</v>
+      </c>
+      <c r="J2" s="6">
+        <v>200</v>
+      </c>
+      <c r="K2" s="7">
+        <v>43692</v>
+      </c>
+      <c r="L2" s="6">
+        <v>50</v>
+      </c>
+      <c r="M2" s="6">
+        <v>300</v>
+      </c>
+      <c r="N2" s="6">
+        <v>100</v>
+      </c>
+      <c r="O2" s="6">
+        <v>10</v>
+      </c>
+      <c r="P2" s="6">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>20</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
+      <c r="H3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="5">
+        <v>5</v>
+      </c>
+      <c r="J3" s="6">
+        <v>300</v>
+      </c>
+      <c r="K3" s="7">
+        <v>43693</v>
+      </c>
+      <c r="L3" s="6">
+        <v>60</v>
+      </c>
+      <c r="M3" s="6">
+        <v>400</v>
+      </c>
+      <c r="N3" s="6">
+        <v>200</v>
+      </c>
+      <c r="O3" s="6">
+        <v>20</v>
+      </c>
+      <c r="P3" s="6">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>30</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="5">
-        <v>4</v>
-      </c>
-      <c r="G2" s="6">
-        <v>200</v>
-      </c>
-      <c r="H2" s="7">
-        <v>43692</v>
-      </c>
-      <c r="I2" s="6">
-        <v>50</v>
-      </c>
-      <c r="J2" s="6">
-        <v>300</v>
-      </c>
-      <c r="K2" s="6">
-        <v>100</v>
-      </c>
-      <c r="L2" s="6">
-        <v>10</v>
-      </c>
-      <c r="M2" s="6">
-        <v>20</v>
-      </c>
-      <c r="N2" s="6">
-        <v>20</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="5">
-        <v>5</v>
-      </c>
-      <c r="G3" s="6">
-        <v>300</v>
-      </c>
-      <c r="H3" s="7">
-        <v>43693</v>
-      </c>
-      <c r="I3" s="6">
-        <v>60</v>
-      </c>
-      <c r="J3" s="6">
-        <v>400</v>
-      </c>
-      <c r="K3" s="6">
-        <v>200</v>
-      </c>
-      <c r="L3" s="6">
-        <v>20</v>
-      </c>
-      <c r="M3" s="6">
-        <v>30</v>
-      </c>
-      <c r="N3" s="6">
-        <v>30</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="8" t="s">
+    <row r="4" spans="1:21">
+      <c r="A4" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>36</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="5">
         <v>6</v>
       </c>
-      <c r="G4" s="6">
+      <c r="J4" s="6">
         <v>400</v>
       </c>
-      <c r="H4" s="7">
+      <c r="K4" s="7">
         <v>43694</v>
       </c>
-      <c r="I4" s="6">
+      <c r="L4" s="6">
         <v>70</v>
       </c>
-      <c r="J4" s="6">
+      <c r="M4" s="6">
         <v>500</v>
       </c>
-      <c r="K4" s="6">
+      <c r="N4" s="6">
         <v>300</v>
       </c>
-      <c r="L4" s="6">
+      <c r="O4" s="6">
         <v>30</v>
       </c>
-      <c r="M4" s="6">
+      <c r="P4" s="6">
         <v>40</v>
       </c>
-      <c r="N4" s="6">
+      <c r="Q4" s="6">
         <v>40</v>
       </c>
-      <c r="O4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>20</v>
+      <c r="R4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="8" t="s">
+    <row r="5" spans="1:21">
+      <c r="A5" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>37</v>
+      <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="5">
+        <v>38</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="5">
         <v>7</v>
       </c>
-      <c r="G5" s="6">
+      <c r="J5" s="6">
         <v>500</v>
       </c>
-      <c r="H5" s="7">
+      <c r="K5" s="7">
         <v>43695</v>
       </c>
-      <c r="I5" s="6">
+      <c r="L5" s="6">
         <v>80</v>
       </c>
-      <c r="J5" s="6">
+      <c r="M5" s="6">
         <v>600</v>
       </c>
-      <c r="K5" s="6">
+      <c r="N5" s="6">
         <v>400</v>
       </c>
-      <c r="L5" s="6">
+      <c r="O5" s="6">
         <v>40</v>
       </c>
-      <c r="M5" s="6">
+      <c r="P5" s="6">
         <v>50</v>
       </c>
-      <c r="N5" s="6">
+      <c r="Q5" s="6">
         <v>50</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>27</v>
+      <c r="R5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:T1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>"医疗机构,事发学校,家长,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
       <formula1>"流行性感冒,诸如病毒（感染性腹泻）,甲肝,伤寒（副伤寒）,细菌性痢疾,手足口病,急性出血性结膜炎,水痘,结核病,猩红热,麻疹,风疹,流行性腮腺炎,流行性脑脊髓膜炎,百日咳"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
       <formula1>"昆山市柏庐社区卫生服务中心,昆山市巴城镇社区卫生服务中心,昆山市花桥镇社区卫生服务中心,昆山市陆家镇社区卫生服务中心（原合丰）,昆山市淀山湖镇社区卫生服务中心,昆山市锦溪镇社区卫生服务中心,昆山市周庄镇社区卫生服务中心,昆山市亭林社区卫生服务中心,昆山市震川社区卫生服务中心,昆山市青阳社区卫生服务中心,昆山高新区江浦社区卫生服务中心,昆山经济技术开发区蓬朗社区卫生服务中心,昆山市周市镇社区卫生服务中心,昆山市千灯镇社区卫生服务中心,昆山市张浦镇社区卫生服务中心"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:Q1048576">
-      <formula1>"是,否"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>"托班,小班,中班,一年级,二年级,三年级,四年级,五年级,六年级"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>"看护点,幼儿园,小学,初中,高中,职高,大学,十二年制,九年一贯制,六年制中学,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/excel/疫情导入模板.xlsx
+++ b/src/main/resources/static/excel/疫情导入模板.xlsx
@@ -16,26 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
-  <si>
-    <t>报告单位</t>
-  </si>
-  <si>
-    <t>病种分类</t>
-  </si>
-  <si>
-    <t>区域</t>
-  </si>
-  <si>
-    <t>班级</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>停课人数</t>
   </si>
   <si>
-    <t>发病人数(累计)</t>
-  </si>
-  <si>
     <t>应急接种班级数</t>
   </si>
   <si>
@@ -48,15 +33,6 @@
     <t>出动人次数(市级专业部门)</t>
   </si>
   <si>
-    <t>是否原因溯源</t>
-  </si>
-  <si>
-    <t>溯源是否清楚</t>
-  </si>
-  <si>
-    <t>是否预警值</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
@@ -68,131 +44,492 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>诸如病毒（感染性腹泻）</t>
-  </si>
-  <si>
     <t>医疗机构</t>
   </si>
   <si>
     <t>是</t>
   </si>
   <si>
-    <t>昆山市陆家镇社区卫生服务中心（原合丰）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF2F2F2F"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>发病人数</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF2F2F2F"/>
+    <t>事发学校</t>
+  </si>
+  <si>
+    <t>伤寒（副伤寒）</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>家长</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>急性出血性结膜炎</t>
+  </si>
+  <si>
+    <t>猩红热</t>
+  </si>
+  <si>
+    <t>昆山第三中学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺如病毒（感染性腹泻）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆山第三中学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴城镇</t>
+  </si>
+  <si>
+    <t>周市镇</t>
+  </si>
+  <si>
+    <t>高新区</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学年</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>事发学校名称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学段</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年级</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF2F2F2F"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>首周</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF2F2F2F"/>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报告单位</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>病种分类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区域</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发病人数</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>累计</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>事发学校</t>
-  </si>
-  <si>
-    <t>伤寒（副伤寒）</t>
-  </si>
-  <si>
-    <t>昆山市淀山湖镇社区卫生服务中心</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>家长</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>急性出血性结膜炎</t>
-  </si>
-  <si>
-    <t>猩红热</t>
-  </si>
-  <si>
-    <t>昆山市锦溪镇社区卫生服务中心</t>
-  </si>
-  <si>
-    <t>昆山市青阳社区卫生服务中心</t>
-  </si>
-  <si>
-    <t>学年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事发学校名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆山第三中学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二年级</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发病人数</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>首周</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>班级</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>溯源是否清楚</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否原因溯源</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否预警值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.带</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为必填项。
+2.有下拉选项的请按照下拉内容选择。
+3.导入学校疫情时学校信息录入里必须要有数据。
+4.导入学校疫情时(学年,事发学校名称,学段,年级,班级)必须在学校信息里存在。
+5.下面数据为示例数据，填加正式数据时请删除示例数据。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +537,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +576,58 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -268,7 +657,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -295,6 +684,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -658,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -672,148 +1073,110 @@
     <col min="5" max="5" width="11.25" style="6" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="6" customWidth="1"/>
     <col min="7" max="7" width="22.875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="36.625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="8" customWidth="1"/>
     <col min="9" max="9" width="7.375" style="5" customWidth="1"/>
     <col min="10" max="10" width="8.625" style="6" customWidth="1"/>
     <col min="11" max="11" width="14.375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="8.625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="8.75" style="6" customWidth="1"/>
+    <col min="12" max="13" width="10.25" style="6" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="6" customWidth="1"/>
     <col min="15" max="15" width="6.75" style="6" customWidth="1"/>
     <col min="16" max="16" width="15.875" style="6" customWidth="1"/>
     <col min="17" max="17" width="14" style="6" customWidth="1"/>
-    <col min="18" max="18" width="7.75" style="6" customWidth="1"/>
-    <col min="19" max="19" width="7.125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="7" style="6" customWidth="1"/>
+    <col min="18" max="18" width="8.375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="9.25" style="6" customWidth="1"/>
+    <col min="20" max="20" width="8.75" style="6" customWidth="1"/>
     <col min="21" max="21" width="36" style="6" customWidth="1"/>
     <col min="22" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="5" customFormat="1" ht="45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21" s="10" customFormat="1" ht="114.75" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+    </row>
+    <row r="2" spans="1:21" s="5" customFormat="1" ht="45">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="5">
-        <v>4</v>
-      </c>
-      <c r="J2" s="6">
-        <v>200</v>
-      </c>
-      <c r="K2" s="7">
-        <v>43692</v>
-      </c>
-      <c r="L2" s="6">
-        <v>50</v>
-      </c>
-      <c r="M2" s="6">
-        <v>300</v>
-      </c>
-      <c r="N2" s="6">
-        <v>100</v>
-      </c>
-      <c r="O2" s="6">
-        <v>10</v>
-      </c>
-      <c r="P2" s="6">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>20</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -821,207 +1184,276 @@
         <v>2019</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="H3" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I3" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="6">
+        <v>200</v>
+      </c>
+      <c r="K3" s="7">
+        <v>43692</v>
+      </c>
+      <c r="L3" s="6">
+        <v>50</v>
+      </c>
+      <c r="M3" s="6">
         <v>300</v>
       </c>
-      <c r="K3" s="7">
-        <v>43693</v>
-      </c>
-      <c r="L3" s="6">
-        <v>60</v>
-      </c>
-      <c r="M3" s="6">
-        <v>400</v>
-      </c>
       <c r="N3" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O3" s="6">
+        <v>10</v>
+      </c>
+      <c r="P3" s="6">
         <v>20</v>
       </c>
-      <c r="P3" s="6">
-        <v>30</v>
-      </c>
       <c r="Q3" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="U3" s="4"/>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="6">
         <v>2019</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="I4" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="6">
+        <v>300</v>
+      </c>
+      <c r="K4" s="7">
+        <v>43693</v>
+      </c>
+      <c r="L4" s="6">
+        <v>60</v>
+      </c>
+      <c r="M4" s="6">
         <v>400</v>
       </c>
-      <c r="K4" s="7">
-        <v>43694</v>
-      </c>
-      <c r="L4" s="6">
-        <v>70</v>
-      </c>
-      <c r="M4" s="6">
-        <v>500</v>
-      </c>
       <c r="N4" s="6">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O4" s="6">
+        <v>20</v>
+      </c>
+      <c r="P4" s="6">
         <v>30</v>
       </c>
-      <c r="P4" s="6">
-        <v>40</v>
-      </c>
       <c r="Q4" s="6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>18</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="6">
         <v>2019</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="5">
+        <v>6</v>
+      </c>
+      <c r="J5" s="6">
+        <v>400</v>
+      </c>
+      <c r="K5" s="7">
+        <v>43694</v>
+      </c>
+      <c r="L5" s="6">
+        <v>70</v>
+      </c>
+      <c r="M5" s="6">
+        <v>500</v>
+      </c>
+      <c r="N5" s="6">
+        <v>300</v>
+      </c>
+      <c r="O5" s="6">
         <v>30</v>
       </c>
-      <c r="I5" s="5">
+      <c r="P5" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>40</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="5">
         <v>7</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J6" s="6">
         <v>500</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K6" s="7">
         <v>43695</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L6" s="6">
         <v>80</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M6" s="6">
         <v>600</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N6" s="6">
         <v>400</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O6" s="6">
         <v>40</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P6" s="6">
         <v>50</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q6" s="6">
         <v>50</v>
       </c>
-      <c r="R5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="R6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:U1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:T1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"医疗机构,事发学校,家长,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
-      <formula1>"流行性感冒,诸如病毒（感染性腹泻）,甲肝,伤寒（副伤寒）,细菌性痢疾,手足口病,急性出血性结膜炎,水痘,结核病,猩红热,麻疹,风疹,流行性腮腺炎,流行性脑脊髓膜炎,百日咳"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>"流行性感冒,诺如病毒（感染性腹泻）,甲肝,伤寒（副伤寒）,细菌性痢疾,手足口病,急性出血性结膜炎,水痘,结核病,猩红热,麻疹,风疹,流行性腮腺炎,流行性脑脊髓膜炎,百日咳"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
-      <formula1>"昆山市柏庐社区卫生服务中心,昆山市巴城镇社区卫生服务中心,昆山市花桥镇社区卫生服务中心,昆山市陆家镇社区卫生服务中心（原合丰）,昆山市淀山湖镇社区卫生服务中心,昆山市锦溪镇社区卫生服务中心,昆山市周庄镇社区卫生服务中心,昆山市亭林社区卫生服务中心,昆山市震川社区卫生服务中心,昆山市青阳社区卫生服务中心,昆山高新区江浦社区卫生服务中心,昆山经济技术开发区蓬朗社区卫生服务中心,昆山市周市镇社区卫生服务中心,昆山市千灯镇社区卫生服务中心,昆山市张浦镇社区卫生服务中心"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"托班,小班,中班,一年级,二年级,三年级,四年级,五年级,六年级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>"看护点,幼儿园,小学,初中,高中,职高,大学,十二年制,九年一贯制,六年制中学,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+      <formula1>"巴城镇,周市镇,周庄镇,高新区,开发区,花桥镇,陆家镇,张浦镇,千灯镇,锦溪镇,淀山湖"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/excel/疫情导入模板.xlsx
+++ b/src/main/resources/static/excel/疫情导入模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>停课人数</t>
   </si>
@@ -92,10 +92,6 @@
   </si>
   <si>
     <t>二年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诺如病毒（感染性腹泻）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -691,11 +687,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1062,7 +1058,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1090,54 +1086,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="10" customFormat="1" ht="114.75" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
+      <c r="A1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
     </row>
     <row r="2" spans="1:21" s="5" customFormat="1" ht="45">
       <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>6</v>
@@ -1149,10 +1145,10 @@
         <v>7</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>1</v>
@@ -1167,13 +1163,13 @@
         <v>4</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>5</v>
@@ -1184,7 +1180,7 @@
         <v>2019</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>18</v>
@@ -1199,10 +1195,10 @@
         <v>8</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" s="5">
         <v>4</v>
@@ -1265,7 +1261,7 @@
         <v>11</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="5">
         <v>5</v>
@@ -1328,7 +1324,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="5">
         <v>6</v>
@@ -1382,7 +1378,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>14</v>
@@ -1391,7 +1387,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="5">
         <v>7</v>
@@ -1443,17 +1439,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"医疗机构,事发学校,家长,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
-      <formula1>"流行性感冒,诺如病毒（感染性腹泻）,甲肝,伤寒（副伤寒）,细菌性痢疾,手足口病,急性出血性结膜炎,水痘,结核病,猩红热,麻疹,风疹,流行性腮腺炎,流行性脑脊髓膜炎,百日咳"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"托班,小班,中班,一年级,二年级,三年级,四年级,五年级,六年级"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>"看护点,幼儿园,小学,初中,高中,职高,大学,十二年制,九年一贯制,六年制中学,其他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>"巴城镇,周市镇,周庄镇,高新区,开发区,花桥镇,陆家镇,张浦镇,千灯镇,锦溪镇,淀山湖"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>"托班,小班,中班,大班,一年级,二年级,三年级,四年级,五年级,六年级"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>"上呼吸道感染,水痘,肺结核,猩红热,麻疹,风疹,流行性腮腺炎,流行性脑脊髓膜炎,百日咳,急性胃肠炎,甲肝,伤寒（副伤寒）,细菌性痢疾,手足口病,急性出血性结膜炎,疱症性咽峡炎,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/excel/疫情导入模板.xlsx
+++ b/src/main/resources/static/excel/疫情导入模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>停课人数</t>
   </si>
@@ -68,9 +68,6 @@
     <t>急性出血性结膜炎</t>
   </si>
   <si>
-    <t>猩红热</t>
-  </si>
-  <si>
     <t>昆山第三中学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,10 +93,6 @@
   </si>
   <si>
     <t>昆山第三中学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1055,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1087,7 +1080,7 @@
   <sheetData>
     <row r="1" spans="1:21" s="10" customFormat="1" ht="114.75" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1112,28 +1105,28 @@
     </row>
     <row r="2" spans="1:21" s="5" customFormat="1" ht="45">
       <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>6</v>
@@ -1145,10 +1138,10 @@
         <v>7</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>1</v>
@@ -1163,13 +1156,13 @@
         <v>4</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>5</v>
@@ -1180,16 +1173,16 @@
         <v>2019</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>8</v>
@@ -1198,7 +1191,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I3" s="5">
         <v>4</v>
@@ -1243,16 +1236,16 @@
         <v>2019</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>10</v>
@@ -1261,7 +1254,7 @@
         <v>11</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I4" s="5">
         <v>5</v>
@@ -1306,16 +1299,16 @@
         <v>2019</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>13</v>
@@ -1324,7 +1317,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I5" s="5">
         <v>6</v>
@@ -1363,69 +1356,6 @@
         <v>9</v>
       </c>
       <c r="U5" s="4"/>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="5">
-        <v>7</v>
-      </c>
-      <c r="J6" s="6">
-        <v>500</v>
-      </c>
-      <c r="K6" s="7">
-        <v>43695</v>
-      </c>
-      <c r="L6" s="6">
-        <v>80</v>
-      </c>
-      <c r="M6" s="6">
-        <v>600</v>
-      </c>
-      <c r="N6" s="6">
-        <v>400</v>
-      </c>
-      <c r="O6" s="6">
-        <v>40</v>
-      </c>
-      <c r="P6" s="6">
-        <v>50</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>50</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="U6" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
